--- a/src/main/webapp/importTpl/projectInfoImportTpl.xlsx
+++ b/src/main/webapp/importTpl/projectInfoImportTpl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>项目编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,21 @@
   <si>
     <t>预算金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import-Test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunshine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期必须是日期格式</t>
   </si>
   <si>
     <r>
@@ -72,27 +87,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Import-Test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sunshine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W0100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,98 +162,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -317,6 +257,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -351,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,26 +468,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,21 +513,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>70414</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>3022</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
         <v>42736</v>
@@ -593,31 +535,34 @@
       <c r="G2" s="3">
         <v>42839</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>200000</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,12 +570,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
